--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
   <si>
     <t>Lena</t>
   </si>
@@ -38,13 +38,7 @@
     <t>Новая модель</t>
   </si>
   <si>
-    <t>Новый лес</t>
-  </si>
-  <si>
     <t>Старая 2 степерь регрессия</t>
-  </si>
-  <si>
-    <t>Новая 2 степень регрессия</t>
   </si>
   <si>
     <t>Просто кодер</t>
@@ -277,6 +271,87 @@
   </si>
   <si>
     <t>psnr =  34.0133 bpp =  0.2442</t>
+  </si>
+  <si>
+    <t>PSNR = 31.515783073075745 bpp = 0.554718017578125</t>
+  </si>
+  <si>
+    <t>PSNR = 33.84555990258561 bpp = 0.430419921875</t>
+  </si>
+  <si>
+    <t>PSNR = 34.31042188853107 bpp = 0.685302734375</t>
+  </si>
+  <si>
+    <t>PSNR = 33.34600151248229 bpp = 0.619415283203125</t>
+  </si>
+  <si>
+    <t>PSNR = 32.494401359500024 bpp = 0.567108154296875</t>
+  </si>
+  <si>
+    <t>PSNR = 31.73237739264571 bpp = 0.526580810546875</t>
+  </si>
+  <si>
+    <t>PSNR = 29.890180338874085 bpp = 0.44244384765625</t>
+  </si>
+  <si>
+    <t>PSNR = 28.57258909396281 bpp = 0.392120361328125</t>
+  </si>
+  <si>
+    <t>PSNR = 25.64118540807772 bpp = 0.309814453125</t>
+  </si>
+  <si>
+    <t>PSNR = 23.792562275736046 bpp = 0.276458740234375</t>
+  </si>
+  <si>
+    <t>PSNR = 23.176496202963595 bpp = 0.2674560546875</t>
+  </si>
+  <si>
+    <t>PSNR = 34.01681261336805 bpp = 0.747833251953125</t>
+  </si>
+  <si>
+    <t>PSNR = 34.108987541722016 bpp = 0.757720947265625</t>
+  </si>
+  <si>
+    <t>PSNR = 32.33765031651435 bpp = 0.589202880859375</t>
+  </si>
+  <si>
+    <t>PSNR = 31.58831744122105 bpp = 0.52740478515625</t>
+  </si>
+  <si>
+    <t>PSNR = 29.797040166015016 bpp = 0.396453857421875</t>
+  </si>
+  <si>
+    <t>PSNR = 28.45372933122453 bpp = 0.313323974609375</t>
+  </si>
+  <si>
+    <t>PSNR = 27.433983725428487 bpp = 0.258453369140625</t>
+  </si>
+  <si>
+    <t>PSNR = 27.1209927784992 bpp = 0.24322509765625</t>
+  </si>
+  <si>
+    <t>PSNR = 33.067910521815485 bpp = 0.572021484375</t>
+  </si>
+  <si>
+    <t>PSNR = 32.25020313368433 bpp = 0.480499267578125</t>
+  </si>
+  <si>
+    <t>PSNR = 31.57971884023647 bpp = 0.411285400390625</t>
+  </si>
+  <si>
+    <t>PSNR = 31.011596988121724 bpp = 0.358917236328125</t>
+  </si>
+  <si>
+    <t>PSNR = 30.490098270101008 bpp = 0.31463623046875</t>
+  </si>
+  <si>
+    <t>PSNR = 30.05009328790031 bpp = 0.280548095703125</t>
+  </si>
+  <si>
+    <t>PSNR = 29.624686221168663 bpp = 0.25030517578125</t>
+  </si>
+  <si>
+    <t>PSNR = 29.277547008761637 bpp = 0.227752685546875</t>
   </si>
 </sst>
 </file>
@@ -322,16 +397,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -616,31 +694,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.88671875" customWidth="1"/>
     <col min="2" max="2" width="30.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="38.21875" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" customWidth="1"/>
-    <col min="13" max="13" width="20.5546875" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" customWidth="1"/>
-    <col min="15" max="15" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -652,288 +725,216 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="L2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" t="s">
+      <c r="H5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="O4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="I8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N7" t="s">
+      <c r="H9" t="s">
         <v>41</v>
       </c>
-      <c r="O7" t="s">
+      <c r="I9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="O9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -943,155 +944,207 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="L16" s="1" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N18" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O18" t="s">
+      <c r="I20" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N19" t="s">
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O19" t="s">
+      <c r="I21" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N20" t="s">
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O20" t="s">
+      <c r="I22" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N21" t="s">
+    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O21" t="s">
+      <c r="I23" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N22" t="s">
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O22" t="s">
+      <c r="I24" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N23" t="s">
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N24" t="s">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N25" t="s">
+      <c r="I26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1101,257 +1154,220 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    </row>
+    <row r="29" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="4" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2" t="s">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="I33" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2" t="s">
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="I34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O33" s="2" t="s">
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>67</v>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A28:O28"/>
+  <mergeCells count="12">
+    <mergeCell ref="A28:I28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A15:I15"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="125">
   <si>
     <t>Lena</t>
   </si>
@@ -83,9 +83,6 @@
     <t>PSNR = 35.610938316354996 bpp = 0.45477294921875</t>
   </si>
   <si>
-    <t>PSNR = 34.88270649219369 bpp = 0.416717529296875</t>
-  </si>
-  <si>
     <t>PSNR = 34.23384119668131 bpp = 0.387786865234375</t>
   </si>
   <si>
@@ -107,22 +104,7 @@
     <t>PSNR = 31.521265208329186 bpp = 0.310760498046875</t>
   </si>
   <si>
-    <t>PSNR = 35.53277132050156 bpp = 0.555328369140625</t>
-  </si>
-  <si>
     <t>PSNR = 34.81067112662177 bpp = 0.51544189453125</t>
-  </si>
-  <si>
-    <t>PSNR = 34.17855634237591 bpp = 0.484893798828125</t>
-  </si>
-  <si>
-    <t>PSNR = 33.63602737671718 bpp = 0.46343994140625</t>
-  </si>
-  <si>
-    <t>PSNR = 33.12252475178023 bpp = 0.445526123046875</t>
-  </si>
-  <si>
-    <t>PSNR = 31.490726038061986 bpp = 0.401824951171875</t>
   </si>
   <si>
     <t>PSNR = 30.586502226888687 bpp = 0.383148193359375</t>
@@ -276,9 +258,6 @@
     <t>PSNR = 31.515783073075745 bpp = 0.554718017578125</t>
   </si>
   <si>
-    <t>PSNR = 33.84555990258561 bpp = 0.430419921875</t>
-  </si>
-  <si>
     <t>PSNR = 34.31042188853107 bpp = 0.685302734375</t>
   </si>
   <si>
@@ -352,6 +331,75 @@
   </si>
   <si>
     <t>PSNR = 29.277547008761637 bpp = 0.227752685546875</t>
+  </si>
+  <si>
+    <t>PSNR = 33,84555990258561 bpp = 0.430419921875</t>
+  </si>
+  <si>
+    <t>PSNR = 34,88270649219369 bpp = 0.416717529296875</t>
+  </si>
+  <si>
+    <t>PSNR = 35,53277132050156 bpp = 0.555328369140625</t>
+  </si>
+  <si>
+    <t>Дерево mse</t>
+  </si>
+  <si>
+    <t>PSNR = 34,17855634237591 bpp = 0.484893798828125</t>
+  </si>
+  <si>
+    <t>PSNR = 33,63602737671718 bpp = 0.46343994140625</t>
+  </si>
+  <si>
+    <t>PSNR = 33,12252475178023 bpp = 0.445526123046875</t>
+  </si>
+  <si>
+    <t>PSNR = 31,490726038061986 bpp = 0.401824951171875</t>
+  </si>
+  <si>
+    <t>Пни mse</t>
+  </si>
+  <si>
+    <t>2052,3549595700018533694859655012‬</t>
+  </si>
+  <si>
+    <t>2424,1304689695157462838412027791‬</t>
+  </si>
+  <si>
+    <t>4 732,1534987702071977529152442908‬</t>
+  </si>
+  <si>
+    <t>Типа пень</t>
+  </si>
+  <si>
+    <t>2617,3128309856209007045706233836‬</t>
+  </si>
+  <si>
+    <t>2309,9508414154304491254094757239‬</t>
+  </si>
+  <si>
+    <t>33,239445017616116313979301912381‬</t>
+  </si>
+  <si>
+    <t>32,769161202139869768533044466219‬</t>
+  </si>
+  <si>
+    <t>1409,5244180032033252664978123181‬</t>
+  </si>
+  <si>
+    <t>31,309768557903229138304673893847‬</t>
+  </si>
+  <si>
+    <t>1144,5907258832280845902605652832‬</t>
+  </si>
+  <si>
+    <t>30,528693975086031928811592158865‬</t>
+  </si>
+  <si>
+    <t>33.741143592555488931027528969138‬</t>
+  </si>
+  <si>
+    <t>PSNR = 31.57971884023647 bpp = 0.491668701171875</t>
   </si>
 </sst>
 </file>
@@ -694,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,9 +759,10 @@
     <col min="7" max="7" width="20.5546875" customWidth="1"/>
     <col min="8" max="8" width="26.5546875" customWidth="1"/>
     <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -726,7 +775,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -739,17 +788,26 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -772,12 +830,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -787,21 +845,30 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="J4">
+        <v>35.011972704083902</v>
+      </c>
+      <c r="K4">
+        <v>3575.0089389669702</v>
+      </c>
+      <c r="O4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -811,18 +878,24 @@
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="J5">
+        <v>34.331295537273597</v>
+      </c>
+      <c r="K5">
+        <v>3027.38122109388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -832,18 +905,24 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -853,18 +932,24 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -874,18 +959,27 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -895,46 +989,58 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -945,7 +1051,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
@@ -958,14 +1064,14 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -999,15 +1105,17 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="H18" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1016,15 +1124,15 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1033,15 +1141,15 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1050,15 +1158,15 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1067,15 +1175,15 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1084,15 +1192,15 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1101,15 +1209,15 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1118,12 +1226,12 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -1136,15 +1244,15 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1168,14 +1276,14 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1206,152 +1314,152 @@
     <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="141">
   <si>
     <t>Lena</t>
   </si>
@@ -255,9 +255,6 @@
     <t>psnr =  34.0133 bpp =  0.2442</t>
   </si>
   <si>
-    <t>PSNR = 31.515783073075745 bpp = 0.554718017578125</t>
-  </si>
-  <si>
     <t>PSNR = 34.31042188853107 bpp = 0.685302734375</t>
   </si>
   <si>
@@ -285,27 +282,12 @@
     <t>PSNR = 23.176496202963595 bpp = 0.2674560546875</t>
   </si>
   <si>
-    <t>PSNR = 34.01681261336805 bpp = 0.747833251953125</t>
-  </si>
-  <si>
-    <t>PSNR = 34.108987541722016 bpp = 0.757720947265625</t>
-  </si>
-  <si>
     <t>PSNR = 32.33765031651435 bpp = 0.589202880859375</t>
   </si>
   <si>
     <t>PSNR = 31.58831744122105 bpp = 0.52740478515625</t>
   </si>
   <si>
-    <t>PSNR = 29.797040166015016 bpp = 0.396453857421875</t>
-  </si>
-  <si>
-    <t>PSNR = 28.45372933122453 bpp = 0.313323974609375</t>
-  </si>
-  <si>
-    <t>PSNR = 27.433983725428487 bpp = 0.258453369140625</t>
-  </si>
-  <si>
     <t>PSNR = 27.1209927784992 bpp = 0.24322509765625</t>
   </si>
   <si>
@@ -400,6 +382,72 @@
   </si>
   <si>
     <t>PSNR = 31.57971884023647 bpp = 0.491668701171875</t>
+  </si>
+  <si>
+    <t>PSNR = 31.57971884023647 bpp = 0.480865478515625</t>
+  </si>
+  <si>
+    <t>PSNR = 32.25020313368433 bpp = 0.51739501953125</t>
+  </si>
+  <si>
+    <t>PSNR = 34,31042188853107 bpp = 0.685302734375</t>
+  </si>
+  <si>
+    <t>PSNR = 31,515783073075745 bpp = 0.554718017578125</t>
+  </si>
+  <si>
+    <t>975,03012457399902534810400962367‬</t>
+  </si>
+  <si>
+    <t>2698,0015128206213462608061978215‬</t>
+  </si>
+  <si>
+    <t>2160,7282558925215409125083759849‬</t>
+  </si>
+  <si>
+    <t>PSNR = 33.067910521815485 bpp = 0.56768798828125</t>
+  </si>
+  <si>
+    <t>1775,9884454933063941612697639874‬</t>
+  </si>
+  <si>
+    <t>32,08481528271095999918721416535‬</t>
+  </si>
+  <si>
+    <t>31,32279131585664599918721416535‬</t>
+  </si>
+  <si>
+    <t>29,48059426208502099918721416535‬</t>
+  </si>
+  <si>
+    <t>28,163003017173743992113008466516‬</t>
+  </si>
+  <si>
+    <t>PSNR = 28,45372933122453 bpp = 0.313323974609375</t>
+  </si>
+  <si>
+    <t>28,04414325443546599918721416535‬</t>
+  </si>
+  <si>
+    <t>PSNR = 27,433983725428487 bpp = 0.258453369140625</t>
+  </si>
+  <si>
+    <t>27,02439764863942299918721416535‬</t>
+  </si>
+  <si>
+    <t>PSNR = 31.011596988121724 bpp = 0.45391845703125</t>
+  </si>
+  <si>
+    <t>PSNR = 34,01681261336805 bpp = 0.747833251953125</t>
+  </si>
+  <si>
+    <t>PSNR = 34,108987541722016 bpp = 0.757720947265625</t>
+  </si>
+  <si>
+    <t>PSNR = 29,797040166015016 bpp = 0.396453857421875</t>
+  </si>
+  <si>
+    <t>PSNR = 30.05009328790031 bpp = 0.412841796875</t>
   </si>
 </sst>
 </file>
@@ -457,10 +505,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,21 +824,21 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="5"/>
       <c r="H2" t="s">
         <v>29</v>
       </c>
@@ -798,13 +846,13 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -835,7 +883,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -845,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
@@ -860,12 +908,12 @@
         <v>3575.0089389669702</v>
       </c>
       <c r="O4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -895,7 +943,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -911,10 +959,10 @@
         <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -922,7 +970,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -938,10 +986,10 @@
         <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -949,7 +997,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -965,13 +1013,13 @@
         <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -979,7 +1027,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -995,10 +1043,10 @@
         <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1014,10 +1062,10 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1052,21 +1100,21 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1074,7 +1122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1099,17 +1147,19 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>38</v>
@@ -1118,13 +1168,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1135,13 +1187,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1152,13 +1206,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1169,13 +1225,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1186,13 +1244,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1203,13 +1261,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1220,13 +1278,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1235,7 +1293,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1250,7 +1308,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
@@ -1263,30 +1321,36 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1311,19 +1375,19 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>48</v>
@@ -1331,16 +1395,22 @@
       <c r="I31" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31">
+        <v>33.607226536578899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1350,16 +1420,22 @@
       <c r="I32" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32">
+        <v>32.936415435693199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1369,16 +1445,22 @@
       <c r="I33" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1388,16 +1470,22 @@
       <c r="I34" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>1490.17659933037</v>
+      </c>
+      <c r="K34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1407,16 +1495,22 @@
       <c r="I35" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1426,16 +1520,22 @@
       <c r="I36" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>719.87801323997905</v>
+      </c>
+      <c r="K36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1445,21 +1545,27 @@
       <c r="I37" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="E38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>85</v>
-      </c>
       <c r="E39" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -279,18 +279,12 @@
     <t>PSNR = 23.792562275736046 bpp = 0.276458740234375</t>
   </si>
   <si>
-    <t>PSNR = 23.176496202963595 bpp = 0.2674560546875</t>
-  </si>
-  <si>
     <t>PSNR = 32.33765031651435 bpp = 0.589202880859375</t>
   </si>
   <si>
     <t>PSNR = 31.58831744122105 bpp = 0.52740478515625</t>
   </si>
   <si>
-    <t>PSNR = 27.1209927784992 bpp = 0.24322509765625</t>
-  </si>
-  <si>
     <t>PSNR = 33.067910521815485 bpp = 0.572021484375</t>
   </si>
   <si>
@@ -448,6 +442,12 @@
   </si>
   <si>
     <t>PSNR = 30.05009328790031 bpp = 0.412841796875</t>
+  </si>
+  <si>
+    <t>PSNR = 27,1209927784992 bpp = 0.24322509765625</t>
+  </si>
+  <si>
+    <t>PSNR = 23,176496202963595 bpp = 0.2674560546875</t>
   </si>
 </sst>
 </file>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,13 +846,13 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -883,7 +883,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -893,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
@@ -908,12 +908,12 @@
         <v>3575.0089389669702</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -943,7 +943,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -959,10 +959,10 @@
         <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -970,7 +970,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -986,10 +986,10 @@
         <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -997,7 +997,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -1013,13 +1013,13 @@
         <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1027,7 +1027,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -1043,10 +1043,10 @@
         <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1062,10 +1062,10 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1150,16 +1150,16 @@
     <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>38</v>
@@ -1171,12 +1171,12 @@
     <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1190,12 +1190,12 @@
     <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1209,12 +1209,12 @@
     <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1228,12 +1228,12 @@
     <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1250,7 +1250,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1267,7 +1267,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1284,7 +1284,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1344,7 +1344,7 @@
         <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K29" t="s">
         <v>28</v>
@@ -1378,16 +1378,16 @@
     <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>48</v>
@@ -1396,7 +1396,7 @@
         <v>55</v>
       </c>
       <c r="J31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K31">
         <v>33.607226536578899</v>
@@ -1410,7 +1410,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1421,7 +1421,7 @@
         <v>56</v>
       </c>
       <c r="J32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K32">
         <v>32.936415435693199</v>
@@ -1446,10 +1446,10 @@
         <v>57</v>
       </c>
       <c r="J33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1460,7 +1460,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1474,7 +1474,7 @@
         <v>1490.17659933037</v>
       </c>
       <c r="K34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1485,7 +1485,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1496,10 +1496,10 @@
         <v>61</v>
       </c>
       <c r="J35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1510,7 +1510,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1524,7 +1524,7 @@
         <v>719.87801323997905</v>
       </c>
       <c r="K36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1535,7 +1535,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1546,7 +1546,7 @@
         <v>59</v>
       </c>
       <c r="K37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -1554,18 +1554,18 @@
         <v>83</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
   <si>
     <t>Lena</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>PSNR = 23,176496202963595 bpp = 0.2674560546875</t>
+  </si>
+  <si>
+    <t>PSNR = 28.648632663991556 bpp = 0.367950439453125</t>
   </si>
 </sst>
 </file>
@@ -793,7 +796,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1246,7 +1249,9 @@
     </row>
     <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="145">
   <si>
     <t>Lena</t>
   </si>
@@ -297,18 +297,6 @@
     <t>PSNR = 31.011596988121724 bpp = 0.358917236328125</t>
   </si>
   <si>
-    <t>PSNR = 30.490098270101008 bpp = 0.31463623046875</t>
-  </si>
-  <si>
-    <t>PSNR = 30.05009328790031 bpp = 0.280548095703125</t>
-  </si>
-  <si>
-    <t>PSNR = 29.624686221168663 bpp = 0.25030517578125</t>
-  </si>
-  <si>
-    <t>PSNR = 29.277547008761637 bpp = 0.227752685546875</t>
-  </si>
-  <si>
     <t>PSNR = 33,84555990258561 bpp = 0.430419921875</t>
   </si>
   <si>
@@ -375,15 +363,6 @@
     <t>33.741143592555488931027528969138‬</t>
   </si>
   <si>
-    <t>PSNR = 31.57971884023647 bpp = 0.491668701171875</t>
-  </si>
-  <si>
-    <t>PSNR = 31.57971884023647 bpp = 0.480865478515625</t>
-  </si>
-  <si>
-    <t>PSNR = 32.25020313368433 bpp = 0.51739501953125</t>
-  </si>
-  <si>
     <t>PSNR = 34,31042188853107 bpp = 0.685302734375</t>
   </si>
   <si>
@@ -399,9 +378,6 @@
     <t>2160,7282558925215409125083759849‬</t>
   </si>
   <si>
-    <t>PSNR = 33.067910521815485 bpp = 0.56768798828125</t>
-  </si>
-  <si>
     <t>1775,9884454933063941612697639874‬</t>
   </si>
   <si>
@@ -451,6 +427,39 @@
   </si>
   <si>
     <t>PSNR = 28.648632663991556 bpp = 0.367950439453125</t>
+  </si>
+  <si>
+    <t>PSNR = 33,067910521815485 bpp = 0.56768798828125</t>
+  </si>
+  <si>
+    <t>PSNR = 32,25020313368433 bpp = 0.51739501953125</t>
+  </si>
+  <si>
+    <t>PSNR = 26,98651689171347 bpp = 0.333892822265625</t>
+  </si>
+  <si>
+    <t>PSNR = 31.57971884023647 bpp = 0,480865478515625</t>
+  </si>
+  <si>
+    <t>PSNR = 31,57971884023647 bpp = 0,491668701171875</t>
+  </si>
+  <si>
+    <t>32,236408464651491899293846480631‬</t>
+  </si>
+  <si>
+    <t>PSNR = 30,490098270101008 bpp = 0.31463623046875</t>
+  </si>
+  <si>
+    <t>PSNR = 30,05009328790031 bpp = 0.280548095703125</t>
+  </si>
+  <si>
+    <t>PSNR = 29,624686221168663 bpp = 0.25030517578125</t>
+  </si>
+  <si>
+    <t>29,465478239 bpp 0.227752685546875</t>
+  </si>
+  <si>
+    <t>PSNR = 29,277547008761637</t>
   </si>
 </sst>
 </file>
@@ -795,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,13 +858,13 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -886,7 +895,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -896,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
@@ -911,12 +920,12 @@
         <v>3575.0089389669702</v>
       </c>
       <c r="O4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -946,7 +955,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -962,10 +971,10 @@
         <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -973,7 +982,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -989,10 +998,10 @@
         <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1000,7 +1009,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -1016,13 +1025,13 @@
         <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1030,7 +1039,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -1046,10 +1055,10 @@
         <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1065,10 +1074,10 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1124,6 +1133,9 @@
       <c r="I16" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="J16" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1151,9 +1163,8 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1162,7 +1173,7 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>38</v>
@@ -1170,11 +1181,13 @@
       <c r="I18" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="J18">
+        <v>33.032506667429203</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1189,11 +1202,14 @@
       <c r="I19" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="J19" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1208,11 +1224,14 @@
       <c r="I20" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="J20">
+        <v>31.586841310000001</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1227,16 +1246,19 @@
       <c r="I21" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="J21">
+        <v>31.1190727</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1246,16 +1268,19 @@
       <c r="I22" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="J22">
+        <v>30.198383089835701</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1265,14 +1290,19 @@
       <c r="I23" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="J23">
+        <v>28.935364280000002</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1282,14 +1312,17 @@
       <c r="I24" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>29.793975419999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1297,6 +1330,9 @@
         <v>45</v>
       </c>
       <c r="I25" s="1"/>
+      <c r="J25" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -1349,7 +1385,7 @@
         <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s">
         <v>28</v>
@@ -1383,16 +1419,16 @@
     <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>48</v>
@@ -1401,7 +1437,7 @@
         <v>55</v>
       </c>
       <c r="J31" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K31">
         <v>33.607226536578899</v>
@@ -1415,7 +1451,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1426,7 +1462,7 @@
         <v>56</v>
       </c>
       <c r="J32" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K32">
         <v>32.936415435693199</v>
@@ -1451,10 +1487,10 @@
         <v>57</v>
       </c>
       <c r="J33" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K33" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1479,7 +1515,7 @@
         <v>1490.17659933037</v>
       </c>
       <c r="K34" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1501,10 +1537,10 @@
         <v>61</v>
       </c>
       <c r="J35" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K35" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1515,7 +1551,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1529,7 +1565,7 @@
         <v>719.87801323997905</v>
       </c>
       <c r="K36" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1540,7 +1576,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1551,7 +1587,7 @@
         <v>59</v>
       </c>
       <c r="K37" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -1559,18 +1595,18 @@
         <v>83</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K38" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="144">
   <si>
     <t>Lena</t>
   </si>
@@ -454,9 +454,6 @@
   </si>
   <si>
     <t>PSNR = 29,624686221168663 bpp = 0.25030517578125</t>
-  </si>
-  <si>
-    <t>29,465478239 bpp 0.227752685546875</t>
   </si>
   <si>
     <t>PSNR = 29,277547008761637</t>
@@ -805,7 +802,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1313,7 +1310,7 @@
         <v>69</v>
       </c>
       <c r="J24">
-        <v>29.793975419999999</v>
+        <v>27.01135</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1322,7 +1319,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1330,9 +1327,6 @@
         <v>45</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="150">
   <si>
     <t>Lena</t>
   </si>
@@ -457,6 +457,24 @@
   </si>
   <si>
     <t>PSNR = 29,277547008761637</t>
+  </si>
+  <si>
+    <t>Новая  модель</t>
+  </si>
+  <si>
+    <t>PSNR = 33.067910521815485 bpp = 0.66510009765625</t>
+  </si>
+  <si>
+    <t>PSNR = 31.57971884023647 bpp = 0.55731201171875</t>
+  </si>
+  <si>
+    <t>PSNR = 29.624686221168663 bpp = 0.45001220703125</t>
+  </si>
+  <si>
+    <t>PSNR = 34.42888992393367 bpp = 0.494476318359375</t>
+  </si>
+  <si>
+    <t>PSNR = 32.016263555820736 bpp = 0.413848876953125</t>
   </si>
 </sst>
 </file>
@@ -801,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,14 +905,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
@@ -927,7 +947,9 @@
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -1163,7 +1185,9 @@
       <c r="B18" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>86</v>
@@ -1182,11 +1206,13 @@
         <v>33.032506667429203</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>87</v>
@@ -1203,12 +1229,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>88</v>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="151">
   <si>
     <t>Lena</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>PSNR = 32.016263555820736 bpp = 0.413848876953125</t>
+  </si>
+  <si>
+    <t>PSNR = 29.750591520825896 bpp = 0.546539306640625</t>
   </si>
 </sst>
 </file>
@@ -820,7 +823,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:E29"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,7 +943,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>91</v>
       </c>
@@ -1443,7 +1446,9 @@
       <c r="B31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>127</v>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="152">
   <si>
     <t>Lena</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>PSNR = 29.750591520825896 bpp = 0.546539306640625</t>
+  </si>
+  <si>
+    <t>PSNR = 33.082536422869886 bpp = 0.72369384765625</t>
   </si>
 </sst>
 </file>
@@ -822,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,7 +1444,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>112</v>
@@ -1475,7 +1478,9 @@
       <c r="B32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>128</v>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="165">
   <si>
     <t>Lena</t>
   </si>
@@ -481,6 +481,45 @@
   </si>
   <si>
     <t>PSNR = 33.082536422869886 bpp = 0.72369384765625</t>
+  </si>
+  <si>
+    <t>После учета диагонального саббэнда</t>
+  </si>
+  <si>
+    <t>PSNR = 35.083484971857054 bpp = 0.357818603515625</t>
+  </si>
+  <si>
+    <t>PSNR = 34.42888992393367 bpp = 0.3162841796875</t>
+  </si>
+  <si>
+    <t>PSNR = 33.84555990258561 bpp = 0.28607177734375</t>
+  </si>
+  <si>
+    <t>PSNR = 35.610938316354996 bpp = 0.396026611328125</t>
+  </si>
+  <si>
+    <t>PSNR = 33.69079600468061 bpp = 0.278472900390625</t>
+  </si>
+  <si>
+    <t>PSNR = 33.17439339494001 bpp = 0.25531005859375</t>
+  </si>
+  <si>
+    <t>PSNR = 32.70583198522003 bpp = 0.23583984375</t>
+  </si>
+  <si>
+    <t>PSNR = 30.69082932128259 bpp = 0.296295166015625</t>
+  </si>
+  <si>
+    <t>PSNR = 31.635984362952335 bpp = 0.316741943359375</t>
+  </si>
+  <si>
+    <t>PSNR = 29.28833175710489 bpp = 0.431549072265625</t>
+  </si>
+  <si>
+    <t>PSNR = 28.45372933122453 bpp = 0.39703369140625</t>
+  </si>
+  <si>
+    <t>PSNR = 27.1209927784992 bpp = 0.350128173828125</t>
   </si>
 </sst>
 </file>
@@ -823,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,7 +882,7 @@
     <col min="10" max="10" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -856,7 +895,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -887,8 +926,11 @@
       <c r="O2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -911,7 +953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -945,8 +987,11 @@
       <c r="O4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>91</v>
       </c>
@@ -974,15 +1019,20 @@
       <c r="K5">
         <v>3027.38122109388</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1001,15 +1051,20 @@
       <c r="K6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1028,8 +1083,11 @@
       <c r="K7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1058,8 +1116,11 @@
       <c r="O8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1085,8 +1146,11 @@
       <c r="K9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1104,8 +1168,11 @@
       <c r="K10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1114,7 +1181,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1123,7 +1190,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -1136,7 +1203,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -1444,13 +1511,13 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>150</v>
+      <c r="C31" t="s">
+        <v>164</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
@@ -1478,8 +1545,8 @@
       <c r="B32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>151</v>
+      <c r="C32" t="s">
+        <v>163</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
@@ -1505,7 +1572,9 @@
       <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" t="s">
+        <v>162</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>76</v>
@@ -1525,12 +1594,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>84</v>
@@ -1550,12 +1621,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>85</v>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="197">
   <si>
     <t>Lena</t>
   </si>
@@ -520,13 +520,122 @@
   </si>
   <si>
     <t>PSNR = 27.1209927784992 bpp = 0.350128173828125</t>
+  </si>
+  <si>
+    <t>Контекстный кодер после обхода саббэнда</t>
+  </si>
+  <si>
+    <t>PSNR = 34.01681261336805 bpp = 0.707427978515625</t>
+  </si>
+  <si>
+    <t>PSNR = 32.2543037444273 bpp = 0.55267333984375</t>
+  </si>
+  <si>
+    <t>PSNR = 30.861360043078765 bpp = 0.450103759765625</t>
+  </si>
+  <si>
+    <t>PSNR = 29.28833175710489 bpp = 0.35198974609375</t>
+  </si>
+  <si>
+    <t>PSNR = 28.095877633186348 bpp = 0.28997802734375</t>
+  </si>
+  <si>
+    <t>JPEG без заголовка</t>
+  </si>
+  <si>
+    <t>psnr = 32.9617 bpp =  0.2293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pnsr = 33.7045 bpp =  0.2807
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pnr =  34.2822 bpp =  0.3291
+</t>
+  </si>
+  <si>
+    <t>psnr = 35.1293
+bpp =  0.4168</t>
+  </si>
+  <si>
+    <t>psnr = 35.8085 bpp =  0.5051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psnr =  36.4563 bpp =   0.6010
+</t>
+  </si>
+  <si>
+    <t>Jpeg 200 без заголовка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psnr = 39.2119
+bpp =  0.7027
+</t>
+  </si>
+  <si>
+    <t>psnr =  37.4569 bpp =0.4384</t>
+  </si>
+  <si>
+    <t>psnr =  36.7682
+bpp =  0.3712</t>
+  </si>
+  <si>
+    <t>psnr = 36.0225 bpp =  0.3042</t>
+  </si>
+  <si>
+    <t>psnr = 34.9903 bpp =  0.2239</t>
+  </si>
+  <si>
+    <t>psnr = 35.1452
+bpp = 0.6980</t>
+  </si>
+  <si>
+    <t>psnr = 33.9455 bpp = 0.5709</t>
+  </si>
+  <si>
+    <t>psnr = 32.5490 bpp = 0.4378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psnr = 31.6155
+bpp =   0.3737
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psne =  30.6306bpp =   0.3028
+</t>
+  </si>
+  <si>
+    <t>psnr =  29.3370 bpp =  0.2237</t>
+  </si>
+  <si>
+    <t>psnr = 35.2766 bpp = 0.7022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psnr 34.3066 bpp =  0.5672
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psnr=  33.4029 bpp =   0.4370
+</t>
+  </si>
+  <si>
+    <t>JPEG 2000 без заголовка</t>
+  </si>
+  <si>
+    <t>psnr =  32.8210 bpp =  0.3740</t>
+  </si>
+  <si>
+    <t>psnr = 32.1326 bpp = 0.3025</t>
+  </si>
+  <si>
+    <t>psne = 31.2397 bpp = 0.2239</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +652,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -565,13 +681,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -581,6 +703,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,61 +1001,69 @@
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="38.21875" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" customWidth="1"/>
+    <col min="7" max="9" width="20.5546875" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>102</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>93</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>98</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -953,7 +1086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -973,25 +1106,31 @@
         <v>90</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>35.011972704083902</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>3575.0089389669702</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>101</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>91</v>
       </c>
@@ -1008,22 +1147,28 @@
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>34.331295537273597</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>3027.38122109388</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1039,23 +1184,29 @@
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" t="s">
         <v>36</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>72</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>111</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>103</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1071,23 +1222,29 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>73</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>105</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>104</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1101,26 +1258,32 @@
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>74</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>106</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>99</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>100</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1134,23 +1297,26 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" t="s">
         <v>35</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>75</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>108</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>107</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1162,17 +1328,17 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>110</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>109</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1181,7 +1347,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1190,46 +1356,52 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1253,8 +1425,10 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>134</v>
       </c>
@@ -1270,16 +1444,20 @@
         <v>138</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>33.032506667429203</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>135</v>
       </c>
@@ -1293,16 +1471,20 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>137</v>
@@ -1317,16 +1499,20 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>31.586841310000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>126</v>
@@ -1339,16 +1525,20 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>31.1190727</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>130</v>
@@ -1361,16 +1551,20 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>30.198383089835701</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>133</v>
@@ -1383,16 +1577,20 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>28.935364280000002</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>136</v>
@@ -1404,17 +1602,19 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>27.01135</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1424,12 +1624,14 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1437,56 +1639,67 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="6"/>
+      <c r="H29" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>93</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1510,8 +1723,13 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="Q30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>112</v>
@@ -1528,19 +1746,26 @@
         <v>113</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>115</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>33.607226536578899</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>77</v>
@@ -1554,20 +1779,27 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>116</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>32.936415435693199</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
@@ -1581,20 +1813,27 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
+      <c r="H33" t="s">
+        <v>186</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>117</v>
       </c>
-      <c r="K33" t="s">
+      <c r="M33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Q33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>79</v>
@@ -1609,19 +1848,26 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>1490.17659933037</v>
       </c>
-      <c r="K34" t="s">
+      <c r="M34" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Q34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>80</v>
@@ -1636,19 +1882,23 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>114</v>
       </c>
-      <c r="K35" t="s">
+      <c r="M35" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>81</v>
@@ -1661,19 +1911,23 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>719.87801323997905</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>82</v>
@@ -1685,28 +1939,30 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K37" t="s">
+      <c r="M37" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>83</v>
       </c>
       <c r="E38" t="s">
         <v>124</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>132</v>
       </c>
@@ -1716,16 +1972,16 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A15:K15"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
   </mergeCells>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="202">
   <si>
     <t>Lena</t>
   </si>
@@ -629,6 +629,23 @@
   </si>
   <si>
     <t>psne = 31.2397 bpp = 0.2239</t>
+  </si>
+  <si>
+    <t>JPEG ез заголовка</t>
+  </si>
+  <si>
+    <t>psr =  28.2538  0.3589</t>
+  </si>
+  <si>
+    <t>30.1596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psnr =  31.4880 bpp =  0.6422
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5366 b[[ = 0.7592
+</t>
   </si>
 </sst>
 </file>
@@ -681,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -706,6 +723,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1682,7 +1702,9 @@
       <c r="H29" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1748,7 +1770,9 @@
       <c r="H31" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="J31" s="1" t="s">
         <v>48</v>
       </c>
@@ -1782,7 +1806,9 @@
       <c r="H32" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="I32" s="1"/>
+      <c r="I32" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="J32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1799,7 +1825,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
@@ -1816,7 +1842,9 @@
       <c r="H33" t="s">
         <v>186</v>
       </c>
-      <c r="I33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="J33" s="1" t="s">
         <v>50</v>
       </c>
@@ -1850,7 +1878,9 @@
       <c r="H34" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I34" s="1"/>
+      <c r="I34" s="9" t="s">
+        <v>201</v>
+      </c>
       <c r="J34" s="1" t="s">
         <v>51</v>
       </c>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="223">
   <si>
     <t>Lena</t>
   </si>
@@ -646,6 +646,95 @@
   <si>
     <t xml:space="preserve">32.5366 b[[ = 0.7592
 </t>
+  </si>
+  <si>
+    <t>После ПРАВКИ диагональынх саббендов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSNR = 35.083484971857054 bpp = 0.344940185546875
+</t>
+  </si>
+  <si>
+    <t>PSNR = 34.42888992393367 bpp = 0.306121826171875</t>
+  </si>
+  <si>
+    <t>PSNR = 33.84555990258561 bpp = 0.278900146484375</t>
+  </si>
+  <si>
+    <t>PSNR = 33.322663650301216 bpp = 0.256134033203125</t>
+  </si>
+  <si>
+    <t>PSNR = 32.83445052039485 bpp = 0.236297607421875</t>
+  </si>
+  <si>
+    <t>PSNR = 33.067910521815485 bpp = 0.504608154296875</t>
+  </si>
+  <si>
+    <t>PSNR = 32.25020313368433 bpp = 0.42877197265625</t>
+  </si>
+  <si>
+    <t>PSNR = 31.57971884023647 bpp = 0.37213134765625</t>
+  </si>
+  <si>
+    <t>PSNR = 30.490098270101008 bpp = 0.295623779296875</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">После </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>учета</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> диагональных сэббендов</t>
+    </r>
+  </si>
+  <si>
+    <t>PSNR = 35.381535125098154 bpp = 0.3641357421875</t>
+  </si>
+  <si>
+    <t>Включил дообучение</t>
+  </si>
+  <si>
+    <t>PSNR = 35.381535125098154 bpp = 0.337188720703125</t>
+  </si>
+  <si>
+    <t>PSNR = 34.68019596866378 bpp = 0.29595947265625</t>
+  </si>
+  <si>
+    <t>PSNR = 35.69161825221455 bpp = 0.35870361328125</t>
+  </si>
+  <si>
+    <t>PSNR = 33.22450114834205 bpp = 0.22796630859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Включил дообучение </t>
+  </si>
+  <si>
+    <t>PSNR = 33.067910521815485 bpp = 0.463836669921875</t>
+  </si>
+  <si>
+    <t>PSNR = 32.25020313368433 bpp = 0.397186279296875</t>
+  </si>
+  <si>
+    <t>PSNR = 31.011596988121724 bpp = 0.307464599609375</t>
   </si>
 </sst>
 </file>
@@ -698,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -712,6 +801,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -720,12 +816,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:G29"/>
+    <sheetView tabSelected="1" topLeftCell="L13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,39 +1115,40 @@
     <col min="10" max="10" width="26.5546875" customWidth="1"/>
     <col min="11" max="11" width="22.88671875" customWidth="1"/>
     <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="29" max="29" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="4" t="s">
         <v>178</v>
       </c>
@@ -1082,8 +1173,14 @@
       <c r="V2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AC2" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1105,8 +1202,11 @@
       <c r="G3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AC3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1149,8 +1249,14 @@
       <c r="V4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AC4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>91</v>
       </c>
@@ -1187,8 +1293,14 @@
       <c r="V5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AC5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1225,8 +1337,14 @@
       <c r="V6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AC6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1263,8 +1381,14 @@
       <c r="V7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1302,8 +1426,11 @@
       <c r="V8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AC8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1335,8 +1462,11 @@
       <c r="V9" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1358,7 +1488,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1367,7 +1497,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1376,37 +1506,37 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="3" t="s">
         <v>193</v>
       </c>
@@ -1420,8 +1550,14 @@
       <c r="L16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>212</v>
+      </c>
+      <c r="V16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1448,7 +1584,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>134</v>
       </c>
@@ -1476,8 +1612,14 @@
       <c r="L18">
         <v>33.032506667429203</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>208</v>
+      </c>
+      <c r="V18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>135</v>
       </c>
@@ -1503,8 +1645,14 @@
       <c r="L19" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>209</v>
+      </c>
+      <c r="V19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>137</v>
@@ -1531,8 +1679,14 @@
       <c r="L20">
         <v>31.586841310000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>210</v>
+      </c>
+      <c r="V20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>126</v>
@@ -1557,8 +1711,11 @@
       <c r="L21">
         <v>31.1190727</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>130</v>
@@ -1584,7 +1741,7 @@
         <v>30.198383089835701</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>133</v>
@@ -1610,7 +1767,7 @@
         <v>28.935364280000002</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>136</v>
@@ -1634,7 +1791,7 @@
         <v>27.01135</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1651,7 +1808,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1668,37 +1825,37 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="3" t="s">
         <v>193</v>
       </c>
@@ -1721,7 +1878,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1751,7 +1908,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>112</v>
@@ -1789,7 +1946,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>77</v>
@@ -1803,10 +1960,10 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="5" t="s">
         <v>199</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -1878,7 +2035,7 @@
       <c r="H34" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J34" s="1" t="s">

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="234">
   <si>
     <t>Lena</t>
   </si>
@@ -735,6 +735,39 @@
   </si>
   <si>
     <t>PSNR = 31.011596988121724 bpp = 0.307464599609375</t>
+  </si>
+  <si>
+    <t>PSNR = 30.490098270101008 bpp = 0.27386474609375</t>
+  </si>
+  <si>
+    <t>PSNR = 29.624686221168663 bpp = 0.223663330078125</t>
+  </si>
+  <si>
+    <t>После дообучения</t>
+  </si>
+  <si>
+    <t>PSNR = 34.01681261336805 bpp = 0.597808837890625</t>
+  </si>
+  <si>
+    <t>PSNR = 28.949191945296796 bpp = 0.190948486328125</t>
+  </si>
+  <si>
+    <t>PSNR = 33.082536422869886 bpp = 0.53265380859375</t>
+  </si>
+  <si>
+    <t>PSNR = 31.515783073075745 bpp = 0.436126708984375</t>
+  </si>
+  <si>
+    <t>PSNR = 30.266515910920017 bpp = 0.3668212890625</t>
+  </si>
+  <si>
+    <t>PSNR = 28.864539027442603 bpp = 0.29510498046875</t>
+  </si>
+  <si>
+    <t>PSNR = 28.095877633186348 bpp = 0.259307861328125</t>
+  </si>
+  <si>
+    <t>PSNR = 27.433983725428487 bpp = 0.231842041015625</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="J28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1202,6 +1235,9 @@
       <c r="G3" t="s">
         <v>3</v>
       </c>
+      <c r="V3" t="s">
+        <v>227</v>
+      </c>
       <c r="AC3" t="s">
         <v>5</v>
       </c>
@@ -1557,7 +1593,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1584,7 +1620,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>134</v>
       </c>
@@ -1619,7 +1655,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>135</v>
       </c>
@@ -1652,7 +1688,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>137</v>
@@ -1686,7 +1722,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>126</v>
@@ -1714,8 +1750,11 @@
       <c r="P21" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>130</v>
@@ -1740,8 +1779,11 @@
       <c r="L22">
         <v>30.198383089835701</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>133</v>
@@ -1767,7 +1809,7 @@
         <v>28.935364280000002</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>136</v>
@@ -1791,7 +1833,7 @@
         <v>27.01135</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1808,7 +1850,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1825,7 +1867,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>47</v>
       </c>
@@ -1840,7 +1882,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>1</v>
       </c>
@@ -1877,8 +1919,11 @@
       <c r="Q29" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Y29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1907,8 +1952,11 @@
       <c r="Q30" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>112</v>
@@ -1945,8 +1993,11 @@
       <c r="Q31" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>77</v>
@@ -1981,8 +2032,11 @@
       <c r="Q32" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="Y32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
@@ -2017,8 +2071,11 @@
       <c r="Q33" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Y33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>79</v>
@@ -2053,8 +2110,11 @@
       <c r="Q34" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Y34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>80</v>
@@ -2084,8 +2144,11 @@
       <c r="M35" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>81</v>
@@ -2113,8 +2176,11 @@
       <c r="M36" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>82</v>
@@ -2138,7 +2204,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>83</v>
       </c>
@@ -2149,7 +2215,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>132</v>
       </c>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
